--- a/Xecured Password Manager Documents/Test Cases.xlsx
+++ b/Xecured Password Manager Documents/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cror\Desktop\Xecured PM\Xecured Password Manager Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FCE371-4351-4C25-9E1C-55D61221630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D70D181-E64B-4319-8469-CBFA0A82AAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_SQL_INJECTION" sheetId="5" r:id="rId1"/>
@@ -4038,9 +4038,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4113,6 +4110,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4480,87 +4480,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44649</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -4569,32 +4569,32 @@
       <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -15549,87 +15549,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -15638,32 +15638,32 @@
       <c r="C7" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>949</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -16487,7 +16487,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -16509,87 +16509,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44632</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -16598,32 +16598,32 @@
       <c r="C7" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>976</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -17153,8 +17153,8 @@
       <c r="G30" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="H30" s="39" t="s">
-        <v>984</v>
+      <c r="H30" s="64" t="s">
+        <v>15</v>
       </c>
       <c r="I30" s="7"/>
     </row>
@@ -17183,7 +17183,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17205,87 +17205,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44632</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -17294,32 +17294,32 @@
       <c r="C7" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>986</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -17849,8 +17849,8 @@
       <c r="G30" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="H30" s="39" t="s">
-        <v>984</v>
+      <c r="H30" s="64" t="s">
+        <v>15</v>
       </c>
       <c r="I30" s="7"/>
     </row>
@@ -17878,8 +17878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EB6BB4-29A5-415A-B099-502ADEB86890}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -17901,87 +17901,87 @@
   <sheetData>
     <row r="1" spans="2:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="5" t="s">
@@ -17990,38 +17990,38 @@
       <c r="C7" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>988</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="2:12" ht="21">
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="27" t="s">
         <v>989</v>
       </c>
@@ -18473,7 +18473,7 @@
       <c r="D28" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="40" t="s">
         <v>897</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -18497,7 +18497,7 @@
       <c r="D29" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="40" t="s">
         <v>1006</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -18515,7 +18515,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="27" t="s">
         <v>1009</v>
       </c>
@@ -18640,7 +18640,7 @@
       <c r="G35" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="42" t="s">
         <v>984</v>
       </c>
       <c r="I35" s="7"/>
@@ -18860,87 +18860,87 @@
   <sheetData>
     <row r="1" spans="2:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="5" t="s">
@@ -18949,38 +18949,38 @@
       <c r="C7" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>1042</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="2:12" ht="21">
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="27" t="s">
         <v>989</v>
       </c>
@@ -19474,7 +19474,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="27" t="s">
         <v>1050</v>
       </c>
@@ -19824,7 +19824,7 @@
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="40"/>
+      <c r="E45" s="39"/>
       <c r="F45" s="27" t="s">
         <v>1064</v>
       </c>
@@ -21884,87 +21884,87 @@
   <sheetData>
     <row r="1" spans="2:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="5" t="s">
@@ -21973,32 +21973,32 @@
       <c r="C7" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>1084</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -22217,87 +22217,87 @@
   <sheetData>
     <row r="1" spans="2:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="5" t="s">
@@ -22306,32 +22306,32 @@
       <c r="C7" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>1102</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="2:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -22550,87 +22550,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -22639,32 +22639,32 @@
       <c r="C7" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>1111</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="B9" s="25"/>
@@ -24750,7 +24750,7 @@
       <c r="D96" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="E96" s="42" t="s">
+      <c r="E96" s="41" t="s">
         <v>916</v>
       </c>
       <c r="F96" s="7" t="s">
@@ -25233,7 +25233,7 @@
       <c r="D116" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="E116" s="42" t="s">
+      <c r="E116" s="41" t="s">
         <v>916</v>
       </c>
       <c r="F116" s="7" t="s">
@@ -25342,87 +25342,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -25431,32 +25431,32 @@
       <c r="C7" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>1149</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="B9" s="25"/>
@@ -28432,87 +28432,87 @@
   <sheetData>
     <row r="1" spans="2:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="5" t="s">
@@ -28521,38 +28521,38 @@
       <c r="C7" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>1165</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="2:12" ht="21">
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="27" t="s">
         <v>989</v>
       </c>
@@ -29004,7 +29004,7 @@
       <c r="D28" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="40" t="s">
         <v>897</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -29028,7 +29028,7 @@
       <c r="D29" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="40" t="s">
         <v>1006</v>
       </c>
       <c r="F29" s="7" t="s">
@@ -29046,7 +29046,7 @@
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="27" t="s">
         <v>1170</v>
       </c>
@@ -29366,87 +29366,87 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44632</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -29455,32 +29455,32 @@
       <c r="C7" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -29798,87 +29798,87 @@
   <sheetData>
     <row r="1" spans="2:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="5" t="s">
@@ -29887,38 +29887,38 @@
       <c r="C7" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>1178</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="2:12" ht="21">
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="27" t="s">
         <v>1179</v>
       </c>
@@ -30240,7 +30240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FD7C3-C632-4A94-BADE-31BD58FEEA24}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
@@ -30263,87 +30263,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -30352,32 +30352,32 @@
       <c r="C7" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>1187</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -31079,87 +31079,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -31168,32 +31168,32 @@
       <c r="C7" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>704</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -31237,10 +31237,10 @@
       <c r="E10" s="20" t="s">
         <v>648</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="43" t="s">
         <v>650</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -31261,10 +31261,10 @@
       <c r="E11" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>653</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -31285,10 +31285,10 @@
       <c r="E12" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="43" t="s">
         <v>653</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -31309,10 +31309,10 @@
       <c r="E13" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>653</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -31333,10 +31333,10 @@
       <c r="E14" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="43" t="s">
         <v>653</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -31357,10 +31357,10 @@
       <c r="E15" s="20" t="s">
         <v>662</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -31381,10 +31381,10 @@
       <c r="E16" s="20" t="s">
         <v>664</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="43" t="s">
         <v>665</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="43" t="s">
         <v>665</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -31405,10 +31405,10 @@
       <c r="E17" t="s">
         <v>667</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="43" t="s">
         <v>668</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>668</v>
       </c>
       <c r="H17" s="7" t="s">
@@ -31429,10 +31429,10 @@
       <c r="E18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="43" t="s">
         <v>670</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="43" t="s">
         <v>671</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -31453,10 +31453,10 @@
       <c r="E19" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="43" t="s">
         <v>668</v>
       </c>
-      <c r="G19" s="44" t="s">
+      <c r="G19" s="43" t="s">
         <v>668</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -31477,10 +31477,10 @@
       <c r="E20" s="20" t="s">
         <v>674</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="43" t="s">
         <v>665</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="43" t="s">
         <v>665</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -31501,10 +31501,10 @@
       <c r="E21" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="43" t="s">
         <v>665</v>
       </c>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="43" t="s">
         <v>665</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -31525,10 +31525,10 @@
       <c r="E22" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -31549,10 +31549,10 @@
       <c r="E23" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -31573,10 +31573,10 @@
       <c r="E24" s="22" t="s">
         <v>683</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -31597,10 +31597,10 @@
       <c r="E25" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="G25" s="44" t="s">
+      <c r="G25" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -31621,10 +31621,10 @@
       <c r="E26" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G26" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -31645,10 +31645,10 @@
       <c r="E27" s="20" t="s">
         <v>689</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="43" t="s">
         <v>654</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -31669,10 +31669,10 @@
       <c r="E28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="43" t="s">
         <v>691</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="44" t="s">
         <v>692</v>
       </c>
       <c r="H28" s="7" t="s">
@@ -31693,10 +31693,10 @@
       <c r="E29" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="43" t="s">
         <v>695</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="44" t="s">
         <v>696</v>
       </c>
       <c r="H29" s="7"/>
@@ -31715,10 +31715,10 @@
       <c r="E30" s="19">
         <v>0</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="43" t="s">
         <v>698</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="44" t="s">
         <v>698</v>
       </c>
       <c r="H30" s="7"/>
@@ -31737,10 +31737,10 @@
       <c r="E31" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="43" t="s">
         <v>698</v>
       </c>
-      <c r="G31" s="45" t="s">
+      <c r="G31" s="44" t="s">
         <v>698</v>
       </c>
       <c r="H31" s="7"/>
@@ -31759,10 +31759,10 @@
       <c r="E32" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="43" t="s">
         <v>698</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="45" t="s">
         <v>698</v>
       </c>
       <c r="H32" s="7"/>
@@ -31819,87 +31819,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -31908,32 +31908,32 @@
       <c r="C7" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>706</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -32587,87 +32587,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -32676,32 +32676,32 @@
       <c r="C7" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>723</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="B9" s="25"/>
@@ -35575,87 +35575,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44632</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -35664,32 +35664,32 @@
       <c r="C7" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>820</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="B9" s="4" t="s">
@@ -36032,87 +36032,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -36121,32 +36121,32 @@
       <c r="C7" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>833</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="B9" s="25"/>
@@ -37545,87 +37545,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="1:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="5" t="s">
@@ -37634,32 +37634,32 @@
       <c r="C7" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>861</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="1:12" ht="24" customHeight="1">
       <c r="B9" s="25"/>
@@ -38111,7 +38111,7 @@
       <c r="H27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="43" t="s">
         <v>868</v>
       </c>
     </row>
@@ -38187,87 +38187,87 @@
   <sheetData>
     <row r="1" spans="2:12" ht="3.6" customHeight="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>1200</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="50"/>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="53"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>1202</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="47">
+      <c r="C5" s="61"/>
+      <c r="D5" s="46">
         <v>44609</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="56"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="5" t="s">
@@ -38276,32 +38276,32 @@
       <c r="C7" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="D7" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="57" t="s">
         <v>870</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="2:12" ht="24" customHeight="1">
       <c r="B9" s="25"/>
